--- a/docs/功能清单.xlsx
+++ b/docs/功能清单.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mengwp\work\code\wms_eam\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\code\java-workspace\wms_eam\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C83F0-73F4-413B-AC53-E841BAF2C652}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F778BE-69FD-4E7E-9A61-17161B601933}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="功能清单" sheetId="1" r:id="rId1"/>
+    <sheet name="工作流" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>采购计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +281,18 @@
   </si>
   <si>
     <t>工作流设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备保养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备保修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -933,4 +946,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0758C8E6-4723-4E07-A4EE-A47BA7F2531F}">
+  <dimension ref="A2:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/功能清单.xlsx
+++ b/docs/功能清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\code\java-workspace\wms_eam\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F778BE-69FD-4E7E-9A61-17161B601933}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802EBF62-E406-41A5-829A-8DA9316A768D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>采购计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,10 @@
   </si>
   <si>
     <t>设备保修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修人员管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -800,144 +804,149 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>63</v>
       </c>
     </row>
@@ -952,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0758C8E6-4723-4E07-A4EE-A47BA7F2531F}">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
